--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3397029.560147616</v>
+        <v>3394531.308826405</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673422</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152327</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
-        <v>73.14223262086614</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1546,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,19 +1607,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444499</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>77.18791253260838</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851005</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1844,22 +1844,22 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848716</v>
+        <v>270.8701076848717</v>
       </c>
       <c r="D17" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E17" t="n">
         <v>287.5275859861259</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673175</v>
+        <v>270.5718355797485</v>
       </c>
       <c r="H17" t="n">
-        <v>200.2049803011845</v>
+        <v>200.2049803011846</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770203991</v>
+        <v>14.78497770204001</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U17" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727662</v>
       </c>
       <c r="V17" t="n">
-        <v>233.349474383999</v>
+        <v>233.3494743839991</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8381846312771</v>
+        <v>254.8381846312772</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923331</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y17" t="n">
-        <v>245.8880485823513</v>
+        <v>291.8351545699177</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580137</v>
+        <v>85.42919609580146</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249191</v>
+        <v>72.844037012492</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207643</v>
+        <v>54.21268893207652</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043325</v>
+        <v>52.03117856043333</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679532</v>
+        <v>51.01826393679541</v>
       </c>
       <c r="G19" t="n">
-        <v>71.6230241728923</v>
+        <v>71.62302417289239</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818486</v>
+        <v>50.35223082818494</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702173</v>
+        <v>1.949636323702272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530599</v>
+        <v>95.36624124530604</v>
       </c>
       <c r="T19" t="n">
         <v>125.1461651900333</v>
       </c>
       <c r="U19" t="n">
-        <v>191.8090541194769</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V19" t="n">
         <v>157.7348592376921</v>
@@ -2065,10 +2065,10 @@
         <v>192.1202142504551</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.1818692659589</v>
+        <v>124.181869265959</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848716</v>
+        <v>270.8701076848717</v>
       </c>
       <c r="D20" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E20" t="n">
         <v>287.5275859861259</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5189415673175</v>
+        <v>316.5189415673176</v>
       </c>
       <c r="H20" t="n">
-        <v>154.2578743136186</v>
+        <v>154.2578743136177</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770203991</v>
+        <v>14.78497770204</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534842</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U20" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727662</v>
       </c>
       <c r="V20" t="n">
-        <v>233.349474383999</v>
+        <v>233.3494743839991</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312771</v>
+        <v>254.8381846312772</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923331</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y20" t="n">
         <v>291.8351545699177</v>
@@ -2175,7 +2175,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247742</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580137</v>
+        <v>85.42919609580146</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249191</v>
+        <v>72.844037012492</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207643</v>
+        <v>54.21268893207652</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043325</v>
+        <v>52.03117856043333</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679532</v>
+        <v>51.01826393679541</v>
       </c>
       <c r="G22" t="n">
-        <v>71.6230241728923</v>
+        <v>71.62302417289239</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818486</v>
+        <v>50.35223082818494</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702173</v>
+        <v>1.949636323702258</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530599</v>
+        <v>95.36624124530604</v>
       </c>
       <c r="T22" t="n">
         <v>125.1461651900333</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8090541194769</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V22" t="n">
         <v>157.7348592376921</v>
@@ -2302,10 +2302,10 @@
         <v>192.1202142504551</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.1818692659589</v>
+        <v>124.181869265959</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>288.3310575773447</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8701076848716</v>
+        <v>270.8701076848717</v>
       </c>
       <c r="D23" t="n">
-        <v>260.280257534547</v>
+        <v>260.2802575345471</v>
       </c>
       <c r="E23" t="n">
         <v>287.5275859861259</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4732616555755</v>
+        <v>312.4732616555756</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673175</v>
+        <v>316.5189415673176</v>
       </c>
       <c r="H23" t="n">
-        <v>200.2049803011845</v>
+        <v>154.2578743136177</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770203991</v>
+        <v>14.78497770204</v>
       </c>
       <c r="T23" t="n">
-        <v>63.56808006591739</v>
+        <v>109.5151860534843</v>
       </c>
       <c r="U23" t="n">
-        <v>156.592387872766</v>
+        <v>156.5923878727662</v>
       </c>
       <c r="V23" t="n">
-        <v>233.349474383999</v>
+        <v>233.3494743839991</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8381846312771</v>
+        <v>254.8381846312772</v>
       </c>
       <c r="X23" t="n">
-        <v>275.3283165923331</v>
+        <v>275.3283165923332</v>
       </c>
       <c r="Y23" t="n">
         <v>291.8351545699177</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580137</v>
+        <v>85.42919609580146</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249191</v>
+        <v>72.844037012492</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207643</v>
+        <v>54.21268893207652</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043325</v>
+        <v>52.03117856043333</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679532</v>
+        <v>51.01826393679541</v>
       </c>
       <c r="G25" t="n">
-        <v>71.6230241728923</v>
+        <v>71.62302417289239</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818486</v>
+        <v>50.35223082818494</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702173</v>
+        <v>1.949636323702258</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530599</v>
+        <v>95.36624124530604</v>
       </c>
       <c r="T25" t="n">
         <v>125.1461651900333</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8090541194769</v>
+        <v>191.809054119477</v>
       </c>
       <c r="V25" t="n">
         <v>157.7348592376921</v>
@@ -2539,10 +2539,10 @@
         <v>192.1202142504551</v>
       </c>
       <c r="X25" t="n">
-        <v>131.3068713029012</v>
+        <v>131.3068713029013</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.1818692659589</v>
+        <v>124.181869265959</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3061941959372</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>317.8452443034642</v>
@@ -2567,10 +2567,10 @@
         <v>359.4483982741681</v>
       </c>
       <c r="G26" t="n">
-        <v>81.71302102211415</v>
+        <v>363.4940781859101</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197771</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>61.76011432063248</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>203.5675244913586</v>
       </c>
       <c r="V26" t="n">
         <v>280.3246110025916</v>
@@ -2621,7 +2621,7 @@
         <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885102</v>
+        <v>217.6975836563631</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2719,19 @@
         <v>101.187825550669</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902583</v>
+        <v>99.00631517902582</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538791</v>
+        <v>97.99340055538789</v>
       </c>
       <c r="G28" t="n">
         <v>118.5981607914849</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677744</v>
+        <v>97.32736744677743</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229476</v>
+        <v>48.92477294229474</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>335.3061941959373</v>
       </c>
       <c r="C29" t="n">
-        <v>317.8452443034642</v>
+        <v>317.8452443034643</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531396</v>
+        <v>307.2553941531397</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047184</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.4483982741681</v>
+        <v>359.4483982741682</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859101</v>
+        <v>241.577899062542</v>
       </c>
       <c r="H29" t="n">
-        <v>247.1801169197771</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063248</v>
+        <v>61.76011432063262</v>
       </c>
       <c r="T29" t="n">
-        <v>127.007789408661</v>
+        <v>156.490322672077</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913586</v>
+        <v>203.5675244913588</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025916</v>
+        <v>280.3246110025917</v>
       </c>
       <c r="W29" t="n">
-        <v>301.8133212498697</v>
+        <v>301.8133212498698</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109257</v>
+        <v>322.3034532109258</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>338.8102911885103</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.4043327143939</v>
+        <v>132.4043327143941</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8191736310845</v>
+        <v>119.8191736310846</v>
       </c>
       <c r="D31" t="n">
-        <v>101.187825550669</v>
+        <v>101.1878255506691</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902582</v>
+        <v>99.00631517902596</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538789</v>
+        <v>97.99340055538804</v>
       </c>
       <c r="G31" t="n">
-        <v>118.5981607914849</v>
+        <v>118.598160791485</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677743</v>
+        <v>97.32736744677757</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229474</v>
+        <v>48.92477294229489</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250398</v>
+        <v>41.50450520250412</v>
       </c>
       <c r="S31" t="n">
-        <v>142.3413778638985</v>
+        <v>142.3413778638987</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1213018086258</v>
+        <v>172.121301808626</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380695</v>
+        <v>238.7841907380696</v>
       </c>
       <c r="V31" t="n">
-        <v>204.7099958562846</v>
+        <v>204.7099958562848</v>
       </c>
       <c r="W31" t="n">
-        <v>239.0953508690476</v>
+        <v>239.0953508690478</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214938</v>
+        <v>178.2820079214939</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1570058845514</v>
+        <v>171.1570058845516</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C32" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D32" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F32" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H32" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T32" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U32" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V32" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W32" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X32" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y32" t="n">
         <v>288.5532184279487</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U34" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V34" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W34" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X34" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y34" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253495</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-2.110311925207498e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851135</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253507</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247762</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862158</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333692</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007101</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115159</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247762</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383247</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010753</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846435</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482642</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309234</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333692</v>
+        <v>92.08430510333707</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115141</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H46" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333692</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1654.936470383459</v>
+        <v>1627.383644777218</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.423586391121</v>
+        <v>1305.87076078488</v>
       </c>
       <c r="D11" t="n">
-        <v>1022.607520732444</v>
+        <v>995.0546951262027</v>
       </c>
       <c r="E11" t="n">
-        <v>684.2689010822728</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822728</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753427</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3251.724778557791</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>3251.724778557791</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2968.111524162293</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.792501840252</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2336.776376527245</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="Y11" t="n">
-        <v>1994.086677499507</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5136,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F13" t="n">
         <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998339</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N13" t="n">
         <v>1550.274078843938</v>
@@ -5215,7 +5215,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107745</v>
@@ -5224,25 +5224,25 @@
         <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1650.849925018064</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>1329.337041025726</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1018.520975367048</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>680.1823557168773</v>
+        <v>684.2689010822729</v>
       </c>
       <c r="F14" t="n">
-        <v>316.6460838753429</v>
+        <v>684.2689010822729</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>3247.638233192396</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2964.024978796898</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2658.705956474857</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2332.689831161851</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1990.000132134112</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268789</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770419</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373653</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994994</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949997</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827671</v>
+        <v>857.6738109135064</v>
       </c>
       <c r="F17" t="n">
-        <v>588.455471854913</v>
+        <v>542.0442536856522</v>
       </c>
       <c r="G17" t="n">
         <v>268.7393692616628</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218332</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.671500698018</v>
       </c>
       <c r="T17" t="n">
-        <v>3200.050100643995</v>
+        <v>3200.050100643994</v>
       </c>
       <c r="U17" t="n">
-        <v>3041.875971479585</v>
+        <v>3041.875971479584</v>
       </c>
       <c r="V17" t="n">
         <v>2806.169431697767</v>
       </c>
       <c r="W17" t="n">
-        <v>2548.757123989407</v>
+        <v>2548.757123989406</v>
       </c>
       <c r="X17" t="n">
-        <v>2270.647713290081</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y17" t="n">
-        <v>2022.275947045281</v>
+        <v>1975.864728876021</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095332</v>
+        <v>424.1192475095337</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433798</v>
+        <v>350.5394121433802</v>
       </c>
       <c r="D19" t="n">
-        <v>295.7791202927975</v>
+        <v>295.7791202927979</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721579</v>
+        <v>243.2223742721582</v>
       </c>
       <c r="F19" t="n">
-        <v>191.688774336001</v>
+        <v>191.6887743360012</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724734</v>
+        <v>119.3422852724735</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208461</v>
+        <v>68.48144605208468</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>129.635488186009</v>
       </c>
       <c r="K19" t="n">
-        <v>270.1044804825679</v>
+        <v>321.4050986989538</v>
       </c>
       <c r="L19" t="n">
-        <v>519.2730806501996</v>
+        <v>570.5736988665855</v>
       </c>
       <c r="M19" t="n">
-        <v>780.164318194672</v>
+        <v>738.0061801657832</v>
       </c>
       <c r="N19" t="n">
-        <v>1044.931911469794</v>
+        <v>1002.773773440905</v>
       </c>
       <c r="O19" t="n">
-        <v>1276.309016933258</v>
+        <v>1234.150878904369</v>
       </c>
       <c r="P19" t="n">
-        <v>1468.718775931291</v>
+        <v>1426.560637902403</v>
       </c>
       <c r="Q19" t="n">
-        <v>1538.356086608144</v>
+        <v>1532.940161506218</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996724</v>
+        <v>1442.026549996725</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128005</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815402</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712671</v>
+        <v>962.541622171268</v>
       </c>
       <c r="W19" t="n">
-        <v>768.48079969606</v>
+        <v>768.4807996960608</v>
       </c>
       <c r="X19" t="n">
-        <v>635.8475963597961</v>
+        <v>635.8475963597969</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780194</v>
+        <v>510.4113647780201</v>
       </c>
     </row>
     <row r="20">
@@ -5729,55 +5729,55 @@
         <v>1684.621236373654</v>
       </c>
       <c r="C20" t="n">
-        <v>1411.015066994996</v>
+        <v>1411.015066994995</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.105715949999</v>
+        <v>1148.105715949998</v>
       </c>
       <c r="E20" t="n">
-        <v>857.6738109135081</v>
+        <v>857.6738109135074</v>
       </c>
       <c r="F20" t="n">
-        <v>542.044253685654</v>
+        <v>542.0442536856532</v>
       </c>
       <c r="G20" t="n">
-        <v>222.3281510924042</v>
+        <v>222.3281510924033</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.67150069802</v>
       </c>
       <c r="T20" t="n">
         <v>3200.050100643995</v>
@@ -5786,7 +5786,7 @@
         <v>3041.875971479585</v>
       </c>
       <c r="V20" t="n">
-        <v>2806.169431697767</v>
+        <v>2806.169431697768</v>
       </c>
       <c r="W20" t="n">
         <v>2548.757123989407</v>
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095332</v>
+        <v>424.1192475095337</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433798</v>
+        <v>350.5394121433802</v>
       </c>
       <c r="D22" t="n">
-        <v>295.7791202927975</v>
+        <v>295.7791202927979</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721579</v>
+        <v>243.2223742721582</v>
       </c>
       <c r="F22" t="n">
-        <v>191.688774336001</v>
+        <v>191.6887743360012</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724734</v>
+        <v>119.3422852724735</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208461</v>
+        <v>68.48144605208471</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>171.7936262148974</v>
       </c>
       <c r="K22" t="n">
-        <v>363.5632367278424</v>
+        <v>363.5632367278422</v>
       </c>
       <c r="L22" t="n">
-        <v>612.7318368954742</v>
+        <v>612.731836895474</v>
       </c>
       <c r="M22" t="n">
-        <v>780.164318194672</v>
+        <v>873.6230744399463</v>
       </c>
       <c r="N22" t="n">
-        <v>1044.931911469794</v>
+        <v>1138.390667715068</v>
       </c>
       <c r="O22" t="n">
-        <v>1234.150878904368</v>
+        <v>1327.609635149644</v>
       </c>
       <c r="P22" t="n">
-        <v>1426.560637902401</v>
+        <v>1520.019394147677</v>
       </c>
       <c r="Q22" t="n">
-        <v>1532.940161506216</v>
+        <v>1532.940161506218</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996724</v>
+        <v>1442.026549996725</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128005</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815402</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712671</v>
+        <v>962.541622171268</v>
       </c>
       <c r="W22" t="n">
-        <v>768.48079969606</v>
+        <v>768.4807996960608</v>
       </c>
       <c r="X22" t="n">
-        <v>635.8475963597961</v>
+        <v>635.8475963597969</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780194</v>
+        <v>510.4113647780201</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.032454542912</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C23" t="n">
-        <v>1457.426285164254</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.516934119257</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827663</v>
+        <v>857.6738109135076</v>
       </c>
       <c r="F23" t="n">
-        <v>588.4554718549123</v>
+        <v>542.0442536856535</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616628</v>
+        <v>222.3281510924033</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218241</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.671500698019</v>
+        <v>3310.67150069802</v>
       </c>
       <c r="T23" t="n">
-        <v>3246.461318813254</v>
+        <v>3200.050100643995</v>
       </c>
       <c r="U23" t="n">
-        <v>3088.287189648844</v>
+        <v>3041.875971479585</v>
       </c>
       <c r="V23" t="n">
-        <v>2852.580649867027</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W23" t="n">
-        <v>2595.168342158666</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X23" t="n">
-        <v>2317.058931459339</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y23" t="n">
-        <v>2022.275947045281</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D24" t="n">
         <v>618.1564155387305</v>
@@ -6054,46 +6054,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095331</v>
+        <v>424.1192475095337</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433796</v>
+        <v>350.5394121433802</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927974</v>
+        <v>295.7791202927979</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721578</v>
+        <v>243.2223742721582</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360009</v>
+        <v>191.6887743360012</v>
       </c>
       <c r="G25" t="n">
-        <v>119.3422852724733</v>
+        <v>119.3422852724735</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208459</v>
+        <v>68.48144605208471</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>171.7936262148974</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5632367278424</v>
+        <v>363.5632367278422</v>
       </c>
       <c r="L25" t="n">
-        <v>612.7318368954742</v>
+        <v>612.731836895474</v>
       </c>
       <c r="M25" t="n">
-        <v>873.6230744399465</v>
+        <v>873.6230744399463</v>
       </c>
       <c r="N25" t="n">
-        <v>1138.390667715069</v>
+        <v>1138.390667715068</v>
       </c>
       <c r="O25" t="n">
-        <v>1369.767773178533</v>
+        <v>1276.309016933258</v>
       </c>
       <c r="P25" t="n">
-        <v>1468.718775931291</v>
+        <v>1431.97656300433</v>
       </c>
       <c r="Q25" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608145</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996724</v>
+        <v>1442.026549996725</v>
       </c>
       <c r="T25" t="n">
-        <v>1315.616282128003</v>
+        <v>1315.616282128005</v>
       </c>
       <c r="U25" t="n">
-        <v>1121.8697628154</v>
+        <v>1121.869762815402</v>
       </c>
       <c r="V25" t="n">
-        <v>962.541622171267</v>
+        <v>962.541622171268</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960599</v>
+        <v>768.4807996960608</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597959</v>
+        <v>635.8475963597969</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780193</v>
+        <v>510.4113647780201</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1731.102921762873</v>
+        <v>1766.0533664538</v>
       </c>
       <c r="C26" t="n">
-        <v>1410.047119436141</v>
+        <v>1444.997564127068</v>
       </c>
       <c r="D26" t="n">
-        <v>1099.688135443071</v>
+        <v>1134.638580133998</v>
       </c>
       <c r="E26" t="n">
-        <v>761.806597458507</v>
+        <v>796.7570421494343</v>
       </c>
       <c r="F26" t="n">
-        <v>398.7274072825796</v>
+        <v>433.6778519735068</v>
       </c>
       <c r="G26" t="n">
-        <v>316.189002209736</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218241</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3263.221867749947</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3105.150834747849</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2899.527072635366</v>
       </c>
       <c r="V26" t="n">
-        <v>3042.44964887928</v>
+        <v>2616.370899905475</v>
       </c>
       <c r="W26" t="n">
-        <v>2737.587708222846</v>
+        <v>2311.508959249041</v>
       </c>
       <c r="X26" t="n">
-        <v>2412.028664575446</v>
+        <v>1985.949915601641</v>
       </c>
       <c r="Y26" t="n">
-        <v>2069.796047213315</v>
+        <v>1766.0533664538</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6294,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460465</v>
+        <v>756.2666781460464</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318198</v>
+        <v>635.2372098318197</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331642</v>
+        <v>533.027285033164</v>
       </c>
       <c r="E28" t="n">
         <v>433.0209060644511</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802209</v>
+        <v>334.0376731802208</v>
       </c>
       <c r="G28" t="n">
         <v>214.24155116862</v>
@@ -6379,10 +6379,10 @@
         <v>115.9310790001579</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>147.6909272985868</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K28" t="n">
         <v>398.6314812403311</v>
@@ -6427,7 +6427,7 @@
         <v>1062.894292892456</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626061</v>
+        <v>890.008428362606</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2015.730252231353</v>
+        <v>1305.024172789067</v>
       </c>
       <c r="C29" t="n">
-        <v>1694.674449904622</v>
+        <v>983.9683704623355</v>
       </c>
       <c r="D29" t="n">
-        <v>1384.315465911551</v>
+        <v>673.6093864692651</v>
       </c>
       <c r="E29" t="n">
-        <v>1046.433927926987</v>
+        <v>673.6093864692651</v>
       </c>
       <c r="F29" t="n">
-        <v>683.3547377510599</v>
+        <v>310.5301962933374</v>
       </c>
       <c r="G29" t="n">
-        <v>316.189002209736</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218241</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3263.221867749945</v>
+        <v>3263.221867749947</v>
       </c>
       <c r="T29" t="n">
-        <v>3134.931171377561</v>
+        <v>3105.150834747849</v>
       </c>
       <c r="U29" t="n">
-        <v>2929.307409265077</v>
+        <v>2899.527072635365</v>
       </c>
       <c r="V29" t="n">
-        <v>2646.151236535187</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W29" t="n">
-        <v>2341.289295878753</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="X29" t="n">
-        <v>2015.730252231353</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y29" t="n">
-        <v>2015.730252231353</v>
+        <v>1643.717298239509</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460464</v>
+        <v>756.2666781460473</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318197</v>
+        <v>635.2372098318205</v>
       </c>
       <c r="D31" t="n">
-        <v>533.027285033164</v>
+        <v>533.0272850331647</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644511</v>
+        <v>433.0209060644517</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802208</v>
+        <v>334.0376731802213</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2415511686199</v>
+        <v>214.2415511686203</v>
       </c>
       <c r="H31" t="n">
-        <v>115.9310790001579</v>
+        <v>115.9310790001581</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>158.5881198719869</v>
+        <v>147.6909272985897</v>
       </c>
       <c r="K31" t="n">
-        <v>409.5286738137312</v>
+        <v>398.6314812403338</v>
       </c>
       <c r="L31" t="n">
-        <v>773.0418432550953</v>
+        <v>762.1446506816977</v>
       </c>
       <c r="M31" t="n">
-        <v>1164.152259847512</v>
+        <v>1153.255067274114</v>
       </c>
       <c r="N31" t="n">
-        <v>1552.514007546245</v>
+        <v>1541.616814972847</v>
       </c>
       <c r="O31" t="n">
-        <v>1898.796977459526</v>
+        <v>1887.899784886128</v>
       </c>
       <c r="P31" t="n">
-        <v>2167.460656312653</v>
+        <v>2167.460656312655</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458036</v>
+        <v>2292.024323458038</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829244</v>
+        <v>2250.100580829246</v>
       </c>
       <c r="S31" t="n">
-        <v>2106.321411269751</v>
+        <v>2106.321411269752</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.461510452957</v>
+        <v>1932.461510452958</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.26535819228</v>
+        <v>1691.265358192282</v>
       </c>
       <c r="V31" t="n">
-        <v>1484.487584600074</v>
+        <v>1484.487584600075</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176793</v>
+        <v>1242.977129176795</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.894292892456</v>
+        <v>1062.894292892457</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.008428362606</v>
+        <v>890.008428362607</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E32" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T32" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U32" t="n">
         <v>3051.821232515855</v>
@@ -6771,13 +6771,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G34" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226755</v>
       </c>
       <c r="J34" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155308</v>
       </c>
       <c r="K34" t="n">
-        <v>370.0614702889411</v>
+        <v>274.6725740832012</v>
       </c>
       <c r="L34" t="n">
-        <v>622.4791872371222</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M34" t="n">
-        <v>886.6195415621439</v>
+        <v>694.5227723305801</v>
       </c>
       <c r="N34" t="n">
-        <v>1143.477546463671</v>
+        <v>962.5394823862514</v>
       </c>
       <c r="O34" t="n">
-        <v>1378.103768707684</v>
+        <v>1197.165704630265</v>
       </c>
       <c r="P34" t="n">
-        <v>1477.054771460443</v>
+        <v>1392.824580408847</v>
       </c>
       <c r="Q34" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R34" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S34" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T34" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U34" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464989</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307347</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218559</v>
       </c>
       <c r="J35" t="n">
-        <v>255.391247391209</v>
+        <v>255.391247391211</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810575</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049859</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J37" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>253.5298502264972</v>
       </c>
       <c r="L37" t="n">
-        <v>429.0634411854746</v>
+        <v>409.2396941488544</v>
       </c>
       <c r="M37" t="n">
-        <v>693.2037955104963</v>
+        <v>673.3800484738761</v>
       </c>
       <c r="N37" t="n">
-        <v>941.3967585295459</v>
+        <v>941.3967585295474</v>
       </c>
       <c r="O37" t="n">
-        <v>1176.02298077356</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P37" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7190,34 +7190,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,58 +7227,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7290,7 +7290,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J40" t="n">
-        <v>79.65384678970709</v>
+        <v>155.2189959588268</v>
       </c>
       <c r="K40" t="n">
-        <v>177.9647010573775</v>
+        <v>350.237723252321</v>
       </c>
       <c r="L40" t="n">
-        <v>430.3824180055586</v>
+        <v>602.6554402005021</v>
       </c>
       <c r="M40" t="n">
-        <v>673.3800484738742</v>
+        <v>770.0879214996999</v>
       </c>
       <c r="N40" t="n">
-        <v>941.3967585295457</v>
+        <v>941.3967585295474</v>
       </c>
       <c r="O40" t="n">
-        <v>1176.022980773559</v>
+        <v>1176.022980773561</v>
       </c>
       <c r="P40" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219655</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304675</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673502</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431761</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734893</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464984</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,58 +7464,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7527,7 +7527,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170933</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630297</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245372</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K43" t="n">
-        <v>262.1948921089721</v>
+        <v>370.0614702889409</v>
       </c>
       <c r="L43" t="n">
-        <v>514.6126090571533</v>
+        <v>525.7713142112982</v>
       </c>
       <c r="M43" t="n">
-        <v>778.752963382175</v>
+        <v>789.9116685363198</v>
       </c>
       <c r="N43" t="n">
-        <v>1046.769673437846</v>
+        <v>961.2205055661673</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656036</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.346898434619</v>
+        <v>1371.681856552144</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936509</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818986</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219656</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363025</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062512</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304681</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673507</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431766</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734898</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,64 +7631,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960652</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170922</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630287</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
         <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>67.83109325226764</v>
       </c>
       <c r="J46" t="n">
-        <v>163.8840378413017</v>
+        <v>79.65384678970709</v>
       </c>
       <c r="K46" t="n">
-        <v>262.1948921089721</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>514.6126090571533</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M46" t="n">
-        <v>778.752963382175</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N46" t="n">
-        <v>1046.769673437846</v>
+        <v>950.0618004120229</v>
       </c>
       <c r="O46" t="n">
-        <v>1281.39589568186</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P46" t="n">
-        <v>1477.054771460443</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q46" t="n">
         <v>1489.975538818984</v>
@@ -7831,7 +7831,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363023</v>
@@ -7840,16 +7840,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304665</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673493</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431753</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734885</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -9091,7 +9091,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094459</v>
       </c>
       <c r="N16" t="n">
         <v>171.8177168444618</v>
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.62897609706668</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>95.73650111899585</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>22.62897609706967</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>123.9992980883844</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25815758737082</v>
+        <v>15.25815758737081</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843653</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>83.80060090016143</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.3253564079651</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>126.832122807701</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>45.9471059875691</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>45.94710598756633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>45.94710598756599</v>
+        <v>45.94710598756696</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.94710598756696</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>45.94710598756683</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.3061941959372</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>281.7810571637959</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.180116919777</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063251</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>156.4903226720768</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>203.5675244913587</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.1127075321472</v>
       </c>
     </row>
     <row r="27">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959372</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.5027226047185</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.9161791233682</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>29.48253326341575</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607760.1317899361</v>
+        <v>607760.131789936</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607760.131789936</v>
+        <v>607760.1317899361</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633472.8946764469</v>
+        <v>633472.8946764467</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633472.8946764469</v>
+        <v>633472.8946764468</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633472.8946764469</v>
+        <v>633472.8946764468</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607985.8383313559</v>
+        <v>607985.8383313563</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491125</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491124</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="D2" t="n">
         <v>798797.8900973066</v>
       </c>
       <c r="E2" t="n">
-        <v>745417.7346425969</v>
+        <v>745417.7346425964</v>
       </c>
       <c r="F2" t="n">
-        <v>745417.7346425969</v>
+        <v>745417.7346425964</v>
       </c>
       <c r="G2" t="n">
-        <v>796949.7707219813</v>
+        <v>796949.7707219805</v>
       </c>
       <c r="H2" t="n">
-        <v>796949.7707219812</v>
+        <v>796949.7707219808</v>
       </c>
       <c r="I2" t="n">
-        <v>796949.7707219814</v>
+        <v>796949.7707219806</v>
       </c>
       <c r="J2" t="n">
-        <v>745909.4057804157</v>
+        <v>745909.4057804159</v>
       </c>
       <c r="K2" t="n">
-        <v>745909.4057804159</v>
+        <v>745909.4057804154</v>
       </c>
       <c r="L2" t="n">
+        <v>800515.7256176752</v>
+      </c>
+      <c r="M2" t="n">
         <v>800515.7256176756</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>800515.7256176756</v>
+      </c>
+      <c r="O2" t="n">
+        <v>800515.7256176757</v>
+      </c>
+      <c r="P2" t="n">
         <v>800515.7256176753</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176753</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176756</v>
-      </c>
-      <c r="P2" t="n">
-        <v>800515.7256176755</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.9949712491</v>
+        <v>9496.994971250833</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265978</v>
+        <v>1152439.021265976</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403468</v>
+        <v>37942.11797403461</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586376</v>
+        <v>463750.8212586369</v>
       </c>
       <c r="E4" t="n">
-        <v>63095.10913369703</v>
+        <v>63095.10913369705</v>
       </c>
       <c r="F4" t="n">
-        <v>63095.10913369703</v>
+        <v>63095.10913369705</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.70120662288</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.70120662286</v>
+        <v>91701.70120662282</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662282</v>
+        <v>91701.70120662285</v>
       </c>
       <c r="J4" t="n">
-        <v>63366.32784492832</v>
+        <v>63366.32784492842</v>
       </c>
       <c r="K4" t="n">
-        <v>63366.32784492835</v>
+        <v>63366.32784492833</v>
       </c>
       <c r="L4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657697</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657696</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.1378265769</v>
       </c>
       <c r="P4" t="n">
         <v>93774.137826577</v>
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328349</v>
+        <v>33869.34580328353</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82242.68821673066</v>
+        <v>82242.68821673063</v>
       </c>
       <c r="H5" t="n">
         <v>82242.68821673066</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673065</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634219</v>
+        <v>78293.5354563422</v>
       </c>
       <c r="K5" t="n">
         <v>78293.53545634219</v>
@@ -26500,16 +26500,16 @@
         <v>82518.59730624985</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624988</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624988</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297550.8703173811</v>
+        <v>297546.4567395132</v>
       </c>
       <c r="C6" t="n">
-        <v>297550.8703173812</v>
+        <v>297546.4567395134</v>
       </c>
       <c r="D6" t="n">
-        <v>291680.7280641363</v>
+        <v>291676.3233576728</v>
       </c>
       <c r="E6" t="n">
-        <v>-548371.8890788595</v>
+        <v>-548513.1659787942</v>
       </c>
       <c r="F6" t="n">
-        <v>604067.1321871182</v>
+        <v>603925.8552871816</v>
       </c>
       <c r="G6" t="n">
-        <v>585063.2633245932</v>
+        <v>585054.1198505008</v>
       </c>
       <c r="H6" t="n">
-        <v>623005.3812986277</v>
+        <v>622996.2378245355</v>
       </c>
       <c r="I6" t="n">
-        <v>623005.3812986281</v>
+        <v>622996.2378245355</v>
       </c>
       <c r="J6" t="n">
-        <v>604249.5424791452</v>
+        <v>604109.5262744344</v>
       </c>
       <c r="K6" t="n">
-        <v>604249.5424791453</v>
+        <v>604109.5262744341</v>
       </c>
       <c r="L6" t="n">
-        <v>546075.2143023647</v>
+        <v>546075.2143023644</v>
       </c>
       <c r="M6" t="n">
-        <v>417034.4221927755</v>
+        <v>417034.4221927756</v>
       </c>
       <c r="N6" t="n">
+        <v>624222.9904848486</v>
+      </c>
+      <c r="O6" t="n">
+        <v>624222.9904848489</v>
+      </c>
+      <c r="P6" t="n">
         <v>624222.9904848484</v>
-      </c>
-      <c r="O6" t="n">
-        <v>624222.9904848486</v>
-      </c>
-      <c r="P6" t="n">
-        <v>624222.9904848486</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="L2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="M2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="O2" t="n">
+        <v>97.68472022810482</v>
+      </c>
+      <c r="P2" t="n">
         <v>97.68472022810496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.68472022810496</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.68472022810498</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810498</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135294</v>
+        <v>11.08925703135497</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26768,7 +26768,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135294</v>
+        <v>11.08925703135497</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561945</v>
+        <v>1078.687443561943</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754327</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305517</v>
+        <v>339.0182479305516</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052753</v>
+        <v>208.757221905275</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826067</v>
+        <v>177.262238882606</v>
       </c>
       <c r="K8" t="n">
-        <v>214.419117058641</v>
+        <v>214.41911705864</v>
       </c>
       <c r="L8" t="n">
-        <v>228.731368019333</v>
+        <v>228.7313680193318</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862414</v>
+        <v>222.5183879862399</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556357994</v>
+        <v>221.458555635798</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951176008</v>
+        <v>222.5869951175995</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178631</v>
+        <v>224.822346417862</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.4915592000997</v>
+        <v>217.4915592000988</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267121</v>
+        <v>212.7851939267116</v>
       </c>
       <c r="S8" t="n">
-        <v>208.0042044823179</v>
+        <v>208.0042044823177</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27947,40 +27947,40 @@
         <v>137.31966479903</v>
       </c>
       <c r="H9" t="n">
-        <v>112.005080614015</v>
+        <v>112.0050806140149</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588565</v>
+        <v>98.7011472858855</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297575</v>
+        <v>124.5841013297571</v>
       </c>
       <c r="K9" t="n">
-        <v>133.9898052373465</v>
+        <v>133.9898052373458</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993352</v>
+        <v>133.3753828993343</v>
       </c>
       <c r="M9" t="n">
-        <v>136.090388839931</v>
+        <v>136.0903888399299</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993503</v>
+        <v>125.1381096993492</v>
       </c>
       <c r="O9" t="n">
-        <v>136.921160235201</v>
+        <v>136.9211602352</v>
       </c>
       <c r="P9" t="n">
-        <v>129.4196520121506</v>
+        <v>129.4196520121498</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214885</v>
+        <v>136.937040721488</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721165</v>
+        <v>144.1985650721162</v>
       </c>
       <c r="S9" t="n">
-        <v>171.2401239007456</v>
+        <v>171.2401239007455</v>
       </c>
       <c r="T9" t="n">
         <v>200.0685869286724</v>
@@ -28026,40 +28026,40 @@
         <v>167.9709823375825</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0493808127402</v>
+        <v>162.0493808127401</v>
       </c>
       <c r="I10" t="n">
-        <v>154.849109972181</v>
+        <v>154.8491099721809</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634481</v>
+        <v>125.5816320634478</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269175</v>
+        <v>126.6899679269171</v>
       </c>
       <c r="L10" t="n">
-        <v>131.9116646502424</v>
+        <v>131.9116646502419</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297097</v>
+        <v>135.7911600297091</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6254548978764</v>
+        <v>124.6254548978758</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465399</v>
+        <v>135.6300504465394</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697194</v>
+        <v>135.309455269719</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177115</v>
+        <v>149.8305238177113</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021355</v>
+        <v>176.3942526021354</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004296</v>
+        <v>223.6681045004295</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28418,10 +28418,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>51.81880627917797</v>
       </c>
       <c r="K19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613592</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="P19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.2894376952645</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="J22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="N22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="O22" t="n">
-        <v>51.81880627917565</v>
+        <v>51.81880627917749</v>
       </c>
       <c r="P22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.40278408613592</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292495</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="N25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="O25" t="n">
-        <v>94.40278408613592</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>57.28943769526595</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.28943769526472</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="R25" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613584</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292495</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754334</v>
+        <v>47.42764746754336</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292495</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29545,7 +29545,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
     </row>
     <row r="30">
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I30" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754336</v>
+        <v>47.42764746754322</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29779,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="J34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M34" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>86.41330088048409</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>76.32843350416157</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292806</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30013,7 +30013,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30168,49 +30168,49 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>77.66073332242817</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N37" t="n">
-        <v>77.66073332242624</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-2.060573933704291e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810498</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>77.66073332242811</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="M40" t="n">
-        <v>76.32843350415939</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-2.060573933704291e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="K43" t="n">
-        <v>86.41330088048372</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810498</v>
+        <v>77.66073332242934</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="J46" t="n">
-        <v>86.4133008804837</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810498</v>
+        <v>85.08100106221718</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="R46" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0445799277642329</v>
+        <v>0.04457992776424104</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852154503</v>
+        <v>0.4565541852155337</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130591</v>
+        <v>1.718667665130905</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644079566</v>
+        <v>3.783665644080257</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986339545</v>
+        <v>5.670733986340581</v>
       </c>
       <c r="L8" t="n">
-        <v>7.03504695065419</v>
+        <v>7.035046950655475</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241031366</v>
+        <v>7.827845241032796</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960791494</v>
+        <v>7.954507960792947</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304085902</v>
+        <v>7.511216304087275</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337406402</v>
+        <v>6.410649337407572</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674349809</v>
+        <v>4.814130674350689</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887419998</v>
+        <v>2.800343887420509</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927458</v>
+        <v>1.015865103927644</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879296</v>
+        <v>0.1951486337879653</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221138632</v>
+        <v>0.003566394221139283</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064595</v>
+        <v>0.02385236418065031</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224815017</v>
+        <v>0.2303636224815438</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141143455</v>
+        <v>0.8212327141144954</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909187</v>
+        <v>2.253525336909598</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012465</v>
+        <v>3.851633737013169</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880538939</v>
+        <v>5.178996880539884</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082087354</v>
+        <v>6.043645082088457</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383983002</v>
+        <v>6.203602383984135</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209243425</v>
+        <v>5.675084209244462</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402179665</v>
+        <v>4.554755402180497</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364532982</v>
+        <v>3.044733364533538</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847475</v>
+        <v>1.480938891847745</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030922612</v>
+        <v>0.4430472030923421</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614918256</v>
+        <v>0.09614176614920011</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485568813</v>
+        <v>0.0015692344855691</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01999702087621022</v>
+        <v>0.01999702087621388</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946993965</v>
+        <v>0.177791694699429</v>
       </c>
       <c r="I10" t="n">
-        <v>0.601364955077304</v>
+        <v>0.6013649550774138</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375948063</v>
+        <v>1.413789375948321</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243617878</v>
+        <v>2.323290243618302</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630995837</v>
+        <v>2.97301163099638</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895389</v>
+        <v>3.134623917895962</v>
       </c>
       <c r="N10" t="n">
-        <v>3.06008956735679</v>
+        <v>3.060089567357349</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005302879</v>
+        <v>2.826488005303395</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428188</v>
+        <v>2.41854877942863</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734294</v>
+        <v>1.6744778117346</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750339612</v>
+        <v>0.8991387750341254</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365426817</v>
+        <v>0.3484935365427453</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647108003</v>
+        <v>0.08544181647109562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247832</v>
+        <v>0.001090746593248031</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34141,7 +34141,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095047</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
@@ -35577,16 +35577,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120766</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>63.76098156952083</v>
       </c>
       <c r="K19" t="n">
-        <v>193.706677285803</v>
+        <v>193.7066772858028</v>
       </c>
       <c r="L19" t="n">
-        <v>251.6854547147796</v>
+        <v>251.6854547147795</v>
       </c>
       <c r="M19" t="n">
-        <v>263.5265025701741</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>267.4420134092142</v>
+        <v>267.4420134092141</v>
       </c>
       <c r="O19" t="n">
-        <v>233.7142479428932</v>
+        <v>233.7142479428931</v>
       </c>
       <c r="P19" t="n">
-        <v>194.3532919172052</v>
+        <v>194.3532919172051</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.34071785540669</v>
+        <v>107.454064246278</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.470631416088494</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764788</v>
+        <v>106.3449593764787</v>
       </c>
       <c r="K22" t="n">
-        <v>193.706677285803</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L22" t="n">
         <v>251.6854547147796</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N22" t="n">
         <v>267.4420134092142</v>
       </c>
       <c r="O22" t="n">
-        <v>191.130270135933</v>
+        <v>191.1302701359348</v>
       </c>
       <c r="P22" t="n">
         <v>194.3532919172052</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.4540642462781</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
-        <v>5.470631416088594</v>
+        <v>5.470631416088509</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.004807909155697e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.3449593764788</v>
+        <v>106.3449593764787</v>
       </c>
       <c r="K25" t="n">
-        <v>193.706677285803</v>
+        <v>193.7066772858029</v>
       </c>
       <c r="L25" t="n">
         <v>251.6854547147796</v>
       </c>
       <c r="M25" t="n">
-        <v>263.5265025701741</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N25" t="n">
         <v>267.4420134092142</v>
       </c>
       <c r="O25" t="n">
-        <v>233.7142479428932</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>157.2399455263353</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.34071785540692</v>
+        <v>107.454064246278</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.004807909155697e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>190.7870009687126</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.99879885495291</v>
+        <v>93.00606408060958</v>
       </c>
       <c r="K28" t="n">
-        <v>253.4753070118629</v>
+        <v>242.4680417862062</v>
       </c>
       <c r="L28" t="n">
         <v>367.1850196377414</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.004807909155697e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>190.7870009687126</v>
@@ -36841,7 +36841,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.00606408060958</v>
+        <v>81.99879885495578</v>
       </c>
       <c r="K31" t="n">
-        <v>253.4753070118629</v>
+        <v>253.4753070118628</v>
       </c>
       <c r="L31" t="n">
-        <v>367.1850196377414</v>
+        <v>367.1850196377413</v>
       </c>
       <c r="M31" t="n">
-        <v>395.0610268610272</v>
+        <v>395.061026861027</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350834</v>
+        <v>392.2845936350833</v>
       </c>
       <c r="O31" t="n">
-        <v>349.7807776901831</v>
+        <v>349.780777690183</v>
       </c>
       <c r="P31" t="n">
-        <v>271.377453386997</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.821886005437</v>
+        <v>125.8218860054369</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.332299818266783</v>
       </c>
       <c r="J34" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K34" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L34" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M34" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4525302035624</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O34" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.0512801601422</v>
+        <v>89.37971366430376</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923314</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,31 +37461,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
-        <v>99.3038931996671</v>
+        <v>176.9646265220952</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
-        <v>250.6999626455046</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591744</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057649</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193743</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266883</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>89.602908612771</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>245.4521519881976</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057649</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129138</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37935,31 +37935,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184477</v>
       </c>
       <c r="K43" t="n">
-        <v>185.7171940801508</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121432</v>
+        <v>266.808438712143</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>177.6112411534987</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882472</v>
+        <v>110.736000388247</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057493</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38169,22 +38169,22 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266868</v>
       </c>
       <c r="J46" t="n">
-        <v>98.35547617082659</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>258.1202303852955</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
@@ -38193,7 +38193,7 @@
         <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
